--- a/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/53025_WT_dox_inclusions.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/53025_WT_dox_inclusions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -484,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -516,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -532,13 +532,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -548,13 +548,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>284</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -564,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -596,13 +596,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -612,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -628,13 +628,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -644,13 +644,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -660,13 +660,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -676,13 +676,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -692,13 +692,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -724,13 +724,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -740,13 +740,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_01.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -756,1575 +756,711 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>1298</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>278</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>225</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>1024</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_02.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
         <v>17</v>
-      </c>
-      <c r="D51" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_03.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_04.czi</t>
+          <t>bleedthrough\1K_doxonly_green_singlecolorcontrol_01.czi</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3</v>
-      </c>
-      <c r="D67" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5</v>
-      </c>
-      <c r="D69" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6</v>
-      </c>
-      <c r="D70" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>7</v>
-      </c>
-      <c r="D71" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>10</v>
-      </c>
-      <c r="D74" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>11</v>
-      </c>
-      <c r="D75" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12</v>
-      </c>
-      <c r="D76" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13</v>
-      </c>
-      <c r="D77" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>14</v>
-      </c>
-      <c r="D78" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>15</v>
-      </c>
-      <c r="D79" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>16</v>
-      </c>
-      <c r="D80" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>17</v>
-      </c>
-      <c r="D81" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>18</v>
-      </c>
-      <c r="D82" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>19</v>
-      </c>
-      <c r="D83" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_03.czi</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>20</v>
-      </c>
-      <c r="D84" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D86" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>4</v>
-      </c>
-      <c r="D88" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5</v>
-      </c>
-      <c r="D89" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>6</v>
-      </c>
-      <c r="D90" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>8</v>
-      </c>
-      <c r="D92" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>9</v>
-      </c>
-      <c r="D93" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>10</v>
-      </c>
-      <c r="D94" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>11</v>
-      </c>
-      <c r="D95" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>12</v>
-      </c>
-      <c r="D96" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>13</v>
-      </c>
-      <c r="D97" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>14</v>
-      </c>
-      <c r="D98" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>15</v>
-      </c>
-      <c r="D99" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>16</v>
-      </c>
-      <c r="D100" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>17</v>
-      </c>
-      <c r="D101" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>18</v>
-      </c>
-      <c r="D102" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>19</v>
-      </c>
-      <c r="D103" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>20</v>
-      </c>
-      <c r="D104" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>21</v>
-      </c>
-      <c r="D105" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>22</v>
-      </c>
-      <c r="D106" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="n">
         <v>23</v>
-      </c>
-      <c r="D107" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>24</v>
-      </c>
-      <c r="D108" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>25</v>
-      </c>
-      <c r="D109" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>26</v>
-      </c>
-      <c r="D110" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>27</v>
-      </c>
-      <c r="D111" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>28</v>
-      </c>
-      <c r="D112" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>29</v>
-      </c>
-      <c r="D113" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>30</v>
-      </c>
-      <c r="D114" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>31</v>
-      </c>
-      <c r="D115" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>32</v>
-      </c>
-      <c r="D116" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>33</v>
-      </c>
-      <c r="D117" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>53025/WT\WT_OA_dox_LAMP1_RFP_LLOMe_04.czi</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>34</v>
-      </c>
-      <c r="D118" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
